--- a/files/Hsc Students.xlsx
+++ b/files/Hsc Students.xlsx
@@ -995,7 +995,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1021,17 +1021,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1046,72 +1035,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1129,113 +1058,26 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1531,24 +1373,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
-  <dimension ref="A1:C569"/>
+  <dimension ref="A1:C299"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
-      <selection activeCell="C214" sqref="C214"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="18" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="13" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" style="14" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="13" customWidth="1"/>
-    <col min="4" max="16384" width="0" style="4" hidden="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:3" ht="18" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1559,3556 +1397,3286 @@
         <v>9965720370</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:3" ht="18" customHeight="1">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="3">
         <v>9842117970</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:3" ht="18" customHeight="1">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="3">
         <v>8526734034</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:3" ht="18" customHeight="1">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="3">
         <v>9789166963</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:3" ht="18" customHeight="1">
+      <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="3">
         <v>9715206348</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:3" ht="18" customHeight="1">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="4">
         <v>9626585995</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:3" ht="18" customHeight="1">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="4">
         <v>9629266303</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:3" ht="18" customHeight="1">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="4">
         <v>9865156407</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:3" ht="18" customHeight="1">
+      <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="3">
         <v>8675859925</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:3" ht="18" customHeight="1">
+      <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="3">
         <v>9095802536</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:3" ht="18" customHeight="1">
+      <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="4">
         <v>9487558489</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:3" ht="18" customHeight="1">
+      <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="3">
         <v>9942588795</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:3" ht="18" customHeight="1">
+      <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="3">
         <v>8883105934</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:3" ht="18" customHeight="1">
+      <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="3">
         <v>9442216357</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:3" ht="18" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="3">
         <v>9092566103</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:3" ht="18" customHeight="1">
+      <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="4">
         <v>8903473777</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="5" t="s">
+    <row r="17" spans="1:3" ht="18" customHeight="1">
+      <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="3">
         <v>9788902271</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="5" t="s">
+    <row r="18" spans="1:3" ht="18" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="3">
         <v>8508417644</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="5" t="s">
+    <row r="19" spans="1:3" ht="18" customHeight="1">
+      <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="3">
         <v>9688076663</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="5" t="s">
+    <row r="20" spans="1:3" ht="18" customHeight="1">
+      <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="3">
         <v>9543340164</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="5" t="s">
+    <row r="21" spans="1:3" ht="18" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="3">
         <v>9578167643</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="5" t="s">
+    <row r="22" spans="1:3" ht="18" customHeight="1">
+      <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="3">
         <v>9942737032</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="5" t="s">
+    <row r="23" spans="1:3" ht="18" customHeight="1">
+      <c r="A23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="3">
         <v>9443104953</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="5" t="s">
+    <row r="24" spans="1:3" ht="18" customHeight="1">
+      <c r="A24" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="3">
         <v>9942544638</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="5" t="s">
+    <row r="25" spans="1:3" ht="18" customHeight="1">
+      <c r="A25" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="4">
         <v>9688513569</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A26" s="5" t="s">
+    <row r="26" spans="1:3" ht="18" customHeight="1">
+      <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="4">
         <v>9159165554</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="5" t="s">
+    <row r="27" spans="1:3" ht="18" customHeight="1">
+      <c r="A27" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="4">
         <v>9486127881</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="5" t="s">
+    <row r="28" spans="1:3" ht="18" customHeight="1">
+      <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="4">
         <v>9965751332</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="5" t="s">
+    <row r="29" spans="1:3" ht="18" customHeight="1">
+      <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="3">
         <v>9894885354</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A30" s="5" t="s">
+    <row r="30" spans="1:3" ht="18" customHeight="1">
+      <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="4">
         <v>9791523457</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A31" s="5" t="s">
+    <row r="31" spans="1:3" ht="18" customHeight="1">
+      <c r="A31" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="3">
         <v>9965764251</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A32" s="5" t="s">
+    <row r="32" spans="1:3" ht="18" customHeight="1">
+      <c r="A32" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="3">
         <v>9677614702</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="5" t="s">
+    <row r="33" spans="1:3" ht="18" customHeight="1">
+      <c r="A33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="3">
         <v>9842039289</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A34" s="5" t="s">
+    <row r="34" spans="1:3" ht="18" customHeight="1">
+      <c r="A34" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="3">
         <v>9842939641</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A35" s="5" t="s">
+    <row r="35" spans="1:3" ht="18" customHeight="1">
+      <c r="A35" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="4">
         <v>9524333193</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A36" s="5" t="s">
+    <row r="36" spans="1:3" ht="18" customHeight="1">
+      <c r="A36" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C36" s="4">
         <v>9698343527</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A37" s="5" t="s">
+    <row r="37" spans="1:3" ht="18" customHeight="1">
+      <c r="A37" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="3">
         <v>9952622994</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A38" s="5" t="s">
+    <row r="38" spans="1:3" ht="18" customHeight="1">
+      <c r="A38" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C38" s="8">
+      <c r="C38" s="4">
         <v>9443629689</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A39" s="5" t="s">
+    <row r="39" spans="1:3" ht="18" customHeight="1">
+      <c r="A39" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C39" s="8">
+      <c r="C39" s="4">
         <v>9524824121</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A40" s="5" t="s">
+    <row r="40" spans="1:3" ht="18" customHeight="1">
+      <c r="A40" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C40" s="8">
+      <c r="C40" s="4">
         <v>9965290098</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A41" s="5" t="s">
+    <row r="41" spans="1:3" ht="18" customHeight="1">
+      <c r="A41" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C41" s="8">
+      <c r="C41" s="4">
         <v>9095150504</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A42" s="5" t="s">
+    <row r="42" spans="1:3" ht="18" customHeight="1">
+      <c r="A42" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C42" s="8">
+      <c r="C42" s="4">
         <v>9942057487</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A43" s="5" t="s">
+    <row r="43" spans="1:3" ht="18" customHeight="1">
+      <c r="A43" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C43" s="8">
+      <c r="C43" s="4">
         <v>9842177253</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A44" s="5" t="s">
+    <row r="44" spans="1:3" ht="18" customHeight="1">
+      <c r="A44" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C44" s="8">
+      <c r="C44" s="4">
         <v>9788150498</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A45" s="5" t="s">
+    <row r="45" spans="1:3" ht="18" customHeight="1">
+      <c r="A45" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C45" s="7">
+      <c r="C45" s="3">
         <v>9578547072</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A46" s="5" t="s">
+    <row r="46" spans="1:3" ht="18" customHeight="1">
+      <c r="A46" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C46" s="7">
+      <c r="C46" s="3">
         <v>7598280190</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A47" s="5" t="s">
+    <row r="47" spans="1:3" ht="18" customHeight="1">
+      <c r="A47" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C47" s="8">
+      <c r="C47" s="4">
         <v>9442573156</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A48" s="5" t="s">
+    <row r="48" spans="1:3" ht="18" customHeight="1">
+      <c r="A48" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C48" s="8">
+      <c r="C48" s="4">
         <v>9842443634</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A49" s="5" t="s">
+    <row r="49" spans="1:3" ht="18" customHeight="1">
+      <c r="A49" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C49" s="8">
+      <c r="C49" s="4">
         <v>9524250811</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A50" s="5" t="s">
+    <row r="50" spans="1:3" ht="18" customHeight="1">
+      <c r="A50" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C50" s="8">
+      <c r="C50" s="4">
         <v>9942926919</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A51" s="5" t="s">
+    <row r="51" spans="1:3" ht="18" customHeight="1">
+      <c r="A51" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C51" s="8">
+      <c r="C51" s="4">
         <v>8903179775</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A52" s="5" t="s">
+    <row r="52" spans="1:3" ht="18" customHeight="1">
+      <c r="A52" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C52" s="7">
+      <c r="C52" s="3">
         <v>8344475705</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A53" s="5" t="s">
+    <row r="53" spans="1:3" ht="18" customHeight="1">
+      <c r="A53" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C53" s="7">
+      <c r="C53" s="3">
         <v>9750206294</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A54" s="5" t="s">
+    <row r="54" spans="1:3" ht="18" customHeight="1">
+      <c r="A54" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C54" s="8">
+      <c r="C54" s="4">
         <v>9788015126</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A55" s="5" t="s">
+    <row r="55" spans="1:3" ht="18" customHeight="1">
+      <c r="A55" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C55" s="8">
+      <c r="C55" s="4">
         <v>9976736564</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A56" s="5" t="s">
+    <row r="56" spans="1:3" ht="18" customHeight="1">
+      <c r="A56" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B56" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C56" s="8">
+      <c r="C56" s="4">
         <v>9842199617</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A57" s="5" t="s">
+    <row r="57" spans="1:3" ht="18" customHeight="1">
+      <c r="A57" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C57" s="8">
+      <c r="C57" s="4">
         <v>9524141361</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A58" s="5" t="s">
+    <row r="58" spans="1:3" ht="18" customHeight="1">
+      <c r="A58" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C58" s="8">
+      <c r="C58" s="4">
         <v>9521441361</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A59" s="5" t="s">
+    <row r="59" spans="1:3" ht="18" customHeight="1">
+      <c r="A59" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C59" s="7">
+      <c r="C59" s="3">
         <v>9543340164</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A60" s="5" t="s">
+    <row r="60" spans="1:3" ht="18" customHeight="1">
+      <c r="A60" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B60" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C60" s="8">
+      <c r="C60" s="4">
         <v>8508668056</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A61" s="5" t="s">
+    <row r="61" spans="1:3" ht="18" customHeight="1">
+      <c r="A61" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C61" s="8">
+      <c r="C61" s="4">
         <v>9843509171</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A62" s="5" t="s">
+    <row r="62" spans="1:3" ht="18" customHeight="1">
+      <c r="A62" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="B62" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C62" s="8">
+      <c r="C62" s="4">
         <v>7667061889</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A63" s="5" t="s">
+    <row r="63" spans="1:3" ht="18" customHeight="1">
+      <c r="A63" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="B63" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C63" s="8">
+      <c r="C63" s="4">
         <v>9842742704</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A64" s="5" t="s">
+    <row r="64" spans="1:3" ht="18" customHeight="1">
+      <c r="A64" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B64" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C64" s="8">
+      <c r="C64" s="4">
         <v>9842487063</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A65" s="5" t="s">
+    <row r="65" spans="1:3" ht="18" customHeight="1">
+      <c r="A65" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B65" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C65" s="8">
+      <c r="C65" s="4">
         <v>9655740152</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A66" s="5" t="s">
+    <row r="66" spans="1:3" ht="18" customHeight="1">
+      <c r="A66" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B66" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C66" s="8">
+      <c r="C66" s="4">
         <v>9486127881</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A67" s="5" t="s">
+    <row r="67" spans="1:3" ht="18" customHeight="1">
+      <c r="A67" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="B67" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C67" s="7">
+      <c r="C67" s="3">
         <v>9842939641</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A68" s="5" t="s">
+    <row r="68" spans="1:3" ht="18" customHeight="1">
+      <c r="A68" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B68" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C68" s="8">
+      <c r="C68" s="4">
         <v>9789320929</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A69" s="5" t="s">
+    <row r="69" spans="1:3" ht="18" customHeight="1">
+      <c r="A69" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="B69" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C69" s="8">
+      <c r="C69" s="4">
         <v>9894885354</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A70" s="5" t="s">
+    <row r="70" spans="1:3" ht="18" customHeight="1">
+      <c r="A70" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="B70" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C70" s="8">
+      <c r="C70" s="4">
         <v>9488659973</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A71" s="5" t="s">
+    <row r="71" spans="1:3" ht="18" customHeight="1">
+      <c r="A71" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="B71" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C71" s="8">
+      <c r="C71" s="4">
         <v>9965317705</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A72" s="5" t="s">
+    <row r="72" spans="1:3" ht="18" customHeight="1">
+      <c r="A72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B72" s="6" t="s">
+      <c r="B72" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C72" s="8">
+      <c r="C72" s="4">
         <v>9865993604</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A73" s="5" t="s">
+    <row r="73" spans="1:3" ht="18" customHeight="1">
+      <c r="A73" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B73" s="6" t="s">
+      <c r="B73" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C73" s="8">
+      <c r="C73" s="4">
         <v>9677937246</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A74" s="5" t="s">
+    <row r="74" spans="1:3" ht="18" customHeight="1">
+      <c r="A74" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B74" s="6" t="s">
+      <c r="B74" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C74" s="8">
+      <c r="C74" s="4">
         <v>9865369873</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A75" s="5" t="s">
+    <row r="75" spans="1:3" ht="18" customHeight="1">
+      <c r="A75" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B75" s="6" t="s">
+      <c r="B75" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C75" s="8">
+      <c r="C75" s="4">
         <v>9442573156</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A76" s="5" t="s">
+    <row r="76" spans="1:3" ht="18" customHeight="1">
+      <c r="A76" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B76" s="6" t="s">
+      <c r="B76" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C76" s="8">
+      <c r="C76" s="4">
         <v>9751674076</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A77" s="5" t="s">
+    <row r="77" spans="1:3" ht="18" customHeight="1">
+      <c r="A77" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B77" s="6" t="s">
+      <c r="B77" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C77" s="8">
+      <c r="C77" s="4">
         <v>9524355680</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A78" s="5" t="s">
+    <row r="78" spans="1:3" ht="18" customHeight="1">
+      <c r="A78" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B78" s="6" t="s">
+      <c r="B78" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C78" s="8">
+      <c r="C78" s="4">
         <v>9865425758</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A79" s="5" t="s">
+    <row r="79" spans="1:3" ht="18" customHeight="1">
+      <c r="A79" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B79" s="6" t="s">
+      <c r="B79" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C79" s="8">
+      <c r="C79" s="4">
         <v>9788193733</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A80" s="5" t="s">
+    <row r="80" spans="1:3" ht="18" customHeight="1">
+      <c r="A80" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B80" s="6" t="s">
+      <c r="B80" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C80" s="8">
+      <c r="C80" s="4">
         <v>9443783779</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A81" s="5" t="s">
+    <row r="81" spans="1:3" ht="18" customHeight="1">
+      <c r="A81" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B81" s="6" t="s">
+      <c r="B81" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C81" s="8">
+      <c r="C81" s="4">
         <v>8012156883</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A82" s="5" t="s">
+    <row r="82" spans="1:3" ht="18" customHeight="1">
+      <c r="A82" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B82" s="6" t="s">
+      <c r="B82" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C82" s="7">
+      <c r="C82" s="3">
         <v>9524896360</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A83" s="5" t="s">
+    <row r="83" spans="1:3" ht="18" customHeight="1">
+      <c r="A83" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B83" s="6" t="s">
+      <c r="B83" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C83" s="7">
+      <c r="C83" s="3">
         <v>9443465888</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A84" s="5" t="s">
+    <row r="84" spans="1:3" ht="18" customHeight="1">
+      <c r="A84" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B84" s="6" t="s">
+      <c r="B84" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C84" s="8">
+      <c r="C84" s="4">
         <v>9095150504</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A85" s="5" t="s">
+    <row r="85" spans="1:3" ht="18" customHeight="1">
+      <c r="A85" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B85" s="6" t="s">
+      <c r="B85" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C85" s="8">
+      <c r="C85" s="4">
         <v>8973393692</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A86" s="5" t="s">
+    <row r="86" spans="1:3" ht="18" customHeight="1">
+      <c r="A86" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B86" s="6" t="s">
+      <c r="B86" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C86" s="8">
+      <c r="C86" s="4">
         <v>9524664666</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A87" s="5" t="s">
+    <row r="87" spans="1:3" ht="18" customHeight="1">
+      <c r="A87" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B87" s="6" t="s">
+      <c r="B87" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C87" s="7">
+      <c r="C87" s="3">
         <v>9688856266</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A88" s="5" t="s">
+    <row r="88" spans="1:3" ht="18" customHeight="1">
+      <c r="A88" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B88" s="6" t="s">
+      <c r="B88" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C88" s="8">
+      <c r="C88" s="4">
         <v>9865655219</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A89" s="5" t="s">
+    <row r="89" spans="1:3" ht="18" customHeight="1">
+      <c r="A89" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B89" s="6" t="s">
+      <c r="B89" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C89" s="8">
+      <c r="C89" s="4">
         <v>9442165979</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A90" s="5" t="s">
+    <row r="90" spans="1:3" ht="18" customHeight="1">
+      <c r="A90" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B90" s="6" t="s">
+      <c r="B90" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C90" s="8">
+      <c r="C90" s="4">
         <v>9788003997</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A91" s="5" t="s">
+    <row r="91" spans="1:3" ht="18" customHeight="1">
+      <c r="A91" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B91" s="6" t="s">
+      <c r="B91" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C91" s="7">
+      <c r="C91" s="3">
         <v>8220850722</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A92" s="5" t="s">
+    <row r="92" spans="1:3" ht="18" customHeight="1">
+      <c r="A92" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B92" s="6" t="s">
+      <c r="B92" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C92" s="8">
+      <c r="C92" s="4">
         <v>9095802618</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A93" s="5" t="s">
+    <row r="93" spans="1:3" ht="18" customHeight="1">
+      <c r="A93" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B93" s="6" t="s">
+      <c r="B93" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C93" s="8">
+      <c r="C93" s="4">
         <v>9942464723</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A94" s="5" t="s">
+    <row r="94" spans="1:3" ht="18" customHeight="1">
+      <c r="A94" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B94" s="6" t="s">
+      <c r="B94" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C94" s="7">
+      <c r="C94" s="3">
         <v>9942588795</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A95" s="5" t="s">
+    <row r="95" spans="1:3" ht="18" customHeight="1">
+      <c r="A95" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B95" s="6" t="s">
+      <c r="B95" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C95" s="8">
+      <c r="C95" s="4">
         <v>9489485019</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A96" s="5" t="s">
+    <row r="96" spans="1:3" ht="18" customHeight="1">
+      <c r="A96" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B96" s="6" t="s">
+      <c r="B96" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C96" s="8">
+      <c r="C96" s="4">
         <v>9842487063</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A97" s="5" t="s">
+    <row r="97" spans="1:3" ht="18" customHeight="1">
+      <c r="A97" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B97" s="6" t="s">
+      <c r="B97" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C97" s="7">
+      <c r="C97" s="3">
         <v>9965764251</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A98" s="5" t="s">
+    <row r="98" spans="1:3" ht="18" customHeight="1">
+      <c r="A98" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B98" s="6" t="s">
+      <c r="B98" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C98" s="8">
+      <c r="C98" s="4">
         <v>9524824121</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A99" s="5" t="s">
+    <row r="99" spans="1:3" ht="18" customHeight="1">
+      <c r="A99" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B99" s="6" t="s">
+      <c r="B99" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C99" s="8">
+      <c r="C99" s="4">
         <v>8526940580</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A100" s="5" t="s">
+    <row r="100" spans="1:3" ht="18" customHeight="1">
+      <c r="A100" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B100" s="6" t="s">
+      <c r="B100" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C100" s="8">
+      <c r="C100" s="4">
         <v>9095667044</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A101" s="5" t="s">
+    <row r="101" spans="1:3" ht="18" customHeight="1">
+      <c r="A101" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B101" s="6" t="s">
+      <c r="B101" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C101" s="8">
+      <c r="C101" s="4">
         <v>9626690256</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A102" s="5" t="s">
+    <row r="102" spans="1:3" ht="18" customHeight="1">
+      <c r="A102" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B102" s="6" t="s">
+      <c r="B102" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C102" s="7">
+      <c r="C102" s="3">
         <v>9443465888</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A103" s="5" t="s">
+    <row r="103" spans="1:3" ht="18" customHeight="1">
+      <c r="A103" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B103" s="6" t="s">
+      <c r="B103" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C103" s="8">
+      <c r="C103" s="4">
         <v>9865391063</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A104" s="5" t="s">
+    <row r="104" spans="1:3" ht="18" customHeight="1">
+      <c r="A104" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B104" s="6" t="s">
+      <c r="B104" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C104" s="7">
+      <c r="C104" s="3">
         <v>9025716837</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A105" s="9" t="s">
+    <row r="105" spans="1:3" ht="18" customHeight="1">
+      <c r="A105" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B105" s="6" t="s">
+      <c r="B105" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C105" s="8">
+      <c r="C105" s="4">
         <v>9942674065</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A106" s="9" t="s">
+    <row r="106" spans="1:3" ht="18" customHeight="1">
+      <c r="A106" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B106" s="6" t="s">
+      <c r="B106" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C106" s="8">
+      <c r="C106" s="4">
         <v>9629747477</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A107" s="9" t="s">
+    <row r="107" spans="1:3" ht="18" customHeight="1">
+      <c r="A107" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B107" s="6" t="s">
+      <c r="B107" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C107" s="8">
+      <c r="C107" s="4">
         <v>9655294652</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A108" s="9" t="s">
+    <row r="108" spans="1:3" ht="18" customHeight="1">
+      <c r="A108" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B108" s="6" t="s">
+      <c r="B108" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C108" s="8">
+      <c r="C108" s="4">
         <v>9688769012</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A109" s="9" t="s">
+    <row r="109" spans="1:3" ht="18" customHeight="1">
+      <c r="A109" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B109" s="6" t="s">
+      <c r="B109" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C109" s="8">
+      <c r="C109" s="4">
         <v>9047578883</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A110" s="9" t="s">
+    <row r="110" spans="1:3" ht="18" customHeight="1">
+      <c r="A110" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B110" s="6" t="s">
+      <c r="B110" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C110" s="8">
+      <c r="C110" s="4">
         <v>9442965771</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A111" s="9" t="s">
+    <row r="111" spans="1:3" ht="18" customHeight="1">
+      <c r="A111" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B111" s="6" t="s">
+      <c r="B111" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C111" s="8">
+      <c r="C111" s="4">
         <v>9788841688</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A112" s="9" t="s">
+    <row r="112" spans="1:3" ht="18" customHeight="1">
+      <c r="A112" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B112" s="6" t="s">
+      <c r="B112" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C112" s="8">
+      <c r="C112" s="4">
         <v>9942363488</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A113" s="9" t="s">
+    <row r="113" spans="1:3" ht="18" customHeight="1">
+      <c r="A113" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B113" s="6" t="s">
+      <c r="B113" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C113" s="8">
+      <c r="C113" s="4">
         <v>9486669499</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A114" s="9" t="s">
+    <row r="114" spans="1:3" ht="18" customHeight="1">
+      <c r="A114" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B114" s="6" t="s">
+      <c r="B114" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C114" s="8">
+      <c r="C114" s="4">
         <v>9976656211</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A115" s="9" t="s">
+    <row r="115" spans="1:3" ht="18" customHeight="1">
+      <c r="A115" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B115" s="6" t="s">
+      <c r="B115" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C115" s="7">
+      <c r="C115" s="3">
         <v>9488034923</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A116" s="9" t="s">
+    <row r="116" spans="1:3" ht="18" customHeight="1">
+      <c r="A116" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B116" s="6" t="s">
+      <c r="B116" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C116" s="8">
+      <c r="C116" s="4">
         <v>9942544638</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A117" s="9" t="s">
+    <row r="117" spans="1:3" ht="18" customHeight="1">
+      <c r="A117" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B117" s="6" t="s">
+      <c r="B117" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C117" s="7">
+      <c r="C117" s="3">
         <v>9578193632</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A118" s="9" t="s">
+    <row r="118" spans="1:3" ht="18" customHeight="1">
+      <c r="A118" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B118" s="6" t="s">
+      <c r="B118" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C118" s="8">
+      <c r="C118" s="4">
         <v>9942584116</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A119" s="9" t="s">
+    <row r="119" spans="1:3" ht="18" customHeight="1">
+      <c r="A119" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B119" s="6" t="s">
+      <c r="B119" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C119" s="8">
+      <c r="C119" s="4">
         <v>9750039409</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A120" s="9" t="s">
+    <row r="120" spans="1:3" ht="18" customHeight="1">
+      <c r="A120" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B120" s="6" t="s">
+      <c r="B120" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C120" s="8">
+      <c r="C120" s="4">
         <v>7502212009</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A121" s="9" t="s">
+    <row r="121" spans="1:3" ht="18" customHeight="1">
+      <c r="A121" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B121" s="6" t="s">
+      <c r="B121" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C121" s="8">
+      <c r="C121" s="4">
         <v>9965751332</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A122" s="9" t="s">
+    <row r="122" spans="1:3" ht="18" customHeight="1">
+      <c r="A122" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B122" s="6" t="s">
+      <c r="B122" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C122" s="8">
+      <c r="C122" s="4">
         <v>9976466483</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A123" s="9" t="s">
+    <row r="123" spans="1:3" ht="18" customHeight="1">
+      <c r="A123" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B123" s="6" t="s">
+      <c r="B123" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C123" s="7">
+      <c r="C123" s="3">
         <v>8220442595</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A124" s="9" t="s">
+    <row r="124" spans="1:3" ht="18" customHeight="1">
+      <c r="A124" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B124" s="6" t="s">
+      <c r="B124" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C124" s="7">
+      <c r="C124" s="3">
         <v>9442517373</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A125" s="9" t="s">
+    <row r="125" spans="1:3" ht="18" customHeight="1">
+      <c r="A125" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B125" s="6" t="s">
+      <c r="B125" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C125" s="8">
+      <c r="C125" s="4">
         <v>9095802874</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A126" s="9" t="s">
+    <row r="126" spans="1:3" ht="18" customHeight="1">
+      <c r="A126" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B126" s="6" t="s">
+      <c r="B126" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C126" s="8">
+      <c r="C126" s="4">
         <v>8012184186</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A127" s="9" t="s">
+    <row r="127" spans="1:3" ht="18" customHeight="1">
+      <c r="A127" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B127" s="6" t="s">
+      <c r="B127" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C127" s="8">
+      <c r="C127" s="4">
         <v>9842741457</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A128" s="9" t="s">
+    <row r="128" spans="1:3" ht="18" customHeight="1">
+      <c r="A128" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B128" s="6" t="s">
+      <c r="B128" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C128" s="8">
+      <c r="C128" s="4">
         <v>8056688222</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A129" s="9" t="s">
+    <row r="129" spans="1:3" ht="18" customHeight="1">
+      <c r="A129" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B129" s="6" t="s">
+      <c r="B129" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C129" s="8">
+      <c r="C129" s="4">
         <v>8903146984</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A130" s="9" t="s">
+    <row r="130" spans="1:3" ht="18" customHeight="1">
+      <c r="A130" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B130" s="6" t="s">
+      <c r="B130" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C130" s="8">
+      <c r="C130" s="4">
         <v>9942742497</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A131" s="9" t="s">
+    <row r="131" spans="1:3" ht="18" customHeight="1">
+      <c r="A131" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B131" s="6" t="s">
+      <c r="B131" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C131" s="8">
+      <c r="C131" s="4">
         <v>9865118344</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A132" s="9" t="s">
+    <row r="132" spans="1:3" ht="18" customHeight="1">
+      <c r="A132" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B132" s="6" t="s">
+      <c r="B132" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C132" s="7">
+      <c r="C132" s="3">
         <v>9442958298</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A133" s="9" t="s">
+    <row r="133" spans="1:3" ht="18" customHeight="1">
+      <c r="A133" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B133" s="6" t="s">
+      <c r="B133" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C133" s="8">
+      <c r="C133" s="4">
         <v>9788004881</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A134" s="9" t="s">
+    <row r="134" spans="1:3" ht="18" customHeight="1">
+      <c r="A134" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B134" s="6" t="s">
+      <c r="B134" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C134" s="8">
+      <c r="C134" s="4">
         <v>8903264849</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A135" s="9" t="s">
+    <row r="135" spans="1:3" ht="18" customHeight="1">
+      <c r="A135" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B135" s="6" t="s">
+      <c r="B135" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C135" s="8">
+      <c r="C135" s="4">
         <v>9942464718</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A136" s="9" t="s">
+    <row r="136" spans="1:3" ht="18" customHeight="1">
+      <c r="A136" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B136" s="6" t="s">
+      <c r="B136" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C136" s="8">
+      <c r="C136" s="4">
         <v>9443826510</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A137" s="9" t="s">
+    <row r="137" spans="1:3" ht="18" customHeight="1">
+      <c r="A137" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B137" s="6" t="s">
+      <c r="B137" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C137" s="7">
+      <c r="C137" s="3">
         <v>9942199138</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A138" s="9" t="s">
+    <row r="138" spans="1:3" ht="18" customHeight="1">
+      <c r="A138" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B138" s="6" t="s">
+      <c r="B138" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C138" s="8">
+      <c r="C138" s="4">
         <v>9865028163</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A139" s="9" t="s">
+    <row r="139" spans="1:3" ht="18" customHeight="1">
+      <c r="A139" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B139" s="6" t="s">
+      <c r="B139" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C139" s="8">
+      <c r="C139" s="4">
         <v>9865130102</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A140" s="9" t="s">
+    <row r="140" spans="1:3" ht="18" customHeight="1">
+      <c r="A140" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B140" s="6" t="s">
+      <c r="B140" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C140" s="7">
+      <c r="C140" s="3">
         <v>9865926988</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A141" s="9" t="s">
+    <row r="141" spans="1:3" ht="18" customHeight="1">
+      <c r="A141" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B141" s="6" t="s">
+      <c r="B141" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C141" s="8">
+      <c r="C141" s="4">
         <v>9715215699</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A142" s="9" t="s">
+    <row r="142" spans="1:3" ht="18" customHeight="1">
+      <c r="A142" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B142" s="6" t="s">
+      <c r="B142" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C142" s="8">
+      <c r="C142" s="4">
         <v>9942059627</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A143" s="9" t="s">
+    <row r="143" spans="1:3" ht="18" customHeight="1">
+      <c r="A143" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="B143" s="6" t="s">
+      <c r="B143" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C143" s="7">
+      <c r="C143" s="3">
         <v>9698343515</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A144" s="9" t="s">
+    <row r="144" spans="1:3" ht="18" customHeight="1">
+      <c r="A144" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="B144" s="6" t="s">
+      <c r="B144" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C144" s="7">
+      <c r="C144" s="3">
         <v>8973393692</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A145" s="9" t="s">
+    <row r="145" spans="1:3" ht="18" customHeight="1">
+      <c r="A145" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="B145" s="6" t="s">
+      <c r="B145" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C145" s="7">
+      <c r="C145" s="3">
         <v>9942018317</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A146" s="9" t="s">
+    <row r="146" spans="1:3" ht="18" customHeight="1">
+      <c r="A146" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="B146" s="6" t="s">
+      <c r="B146" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C146" s="7">
+      <c r="C146" s="3">
         <v>9445257608</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A147" s="9" t="s">
+    <row r="147" spans="1:3" ht="18" customHeight="1">
+      <c r="A147" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="B147" s="6" t="s">
+      <c r="B147" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C147" s="7">
+      <c r="C147" s="3">
         <v>9524971701</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A148" s="9" t="s">
+    <row r="148" spans="1:3" ht="18" customHeight="1">
+      <c r="A148" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="B148" s="6" t="s">
+      <c r="B148" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C148" s="7">
+      <c r="C148" s="3">
         <v>9788066754</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A149" s="9" t="s">
+    <row r="149" spans="1:3" ht="18" customHeight="1">
+      <c r="A149" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="B149" s="6" t="s">
+      <c r="B149" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C149" s="8">
+      <c r="C149" s="4">
         <v>9578582840</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A150" s="9" t="s">
+    <row r="150" spans="1:3" ht="18" customHeight="1">
+      <c r="A150" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="B150" s="6" t="s">
+      <c r="B150" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C150" s="7">
+      <c r="C150" s="3">
         <v>9965720370</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A151" s="9" t="s">
+    <row r="151" spans="1:3" ht="18" customHeight="1">
+      <c r="A151" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="B151" s="6" t="s">
+      <c r="B151" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C151" s="7">
+      <c r="C151" s="3">
         <v>9842039289</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A152" s="9" t="s">
+    <row r="152" spans="1:3" ht="18" customHeight="1">
+      <c r="A152" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="B152" s="6" t="s">
+      <c r="B152" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C152" s="7">
+      <c r="C152" s="3">
         <v>7502325832</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A153" s="9" t="s">
+    <row r="153" spans="1:3" ht="18" customHeight="1">
+      <c r="A153" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="B153" s="6" t="s">
+      <c r="B153" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C153" s="8">
+      <c r="C153" s="4">
         <v>9788003997</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A154" s="9" t="s">
+    <row r="154" spans="1:3" ht="18" customHeight="1">
+      <c r="A154" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="B154" s="6" t="s">
+      <c r="B154" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C154" s="7">
+      <c r="C154" s="3">
         <v>9715890878</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A155" s="9" t="s">
+    <row r="155" spans="1:3" ht="18" customHeight="1">
+      <c r="A155" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="B155" s="6" t="s">
+      <c r="B155" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C155" s="7">
+      <c r="C155" s="3">
         <v>9894858530</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A156" s="9" t="s">
+    <row r="156" spans="1:3" ht="18" customHeight="1">
+      <c r="A156" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="B156" s="6" t="s">
+      <c r="B156" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C156" s="7">
+      <c r="C156" s="3">
         <v>9965020800</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A157" s="9" t="s">
+    <row r="157" spans="1:3" ht="18" customHeight="1">
+      <c r="A157" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="B157" s="6" t="s">
+      <c r="B157" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C157" s="7">
+      <c r="C157" s="3">
         <v>9363240094</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A158" s="9" t="s">
+    <row r="158" spans="1:3" ht="18" customHeight="1">
+      <c r="A158" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="B158" s="6" t="s">
+      <c r="B158" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C158" s="7">
+      <c r="C158" s="3">
         <v>9942215858</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A159" s="9" t="s">
+    <row r="159" spans="1:3" ht="18" customHeight="1">
+      <c r="A159" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="B159" s="6" t="s">
+      <c r="B159" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C159" s="8">
+      <c r="C159" s="4">
         <v>9578439969</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A160" s="9" t="s">
+    <row r="160" spans="1:3" ht="18" customHeight="1">
+      <c r="A160" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="B160" s="6" t="s">
+      <c r="B160" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C160" s="8">
+      <c r="C160" s="4">
         <v>9788004881</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A161" s="9" t="s">
+    <row r="161" spans="1:3" ht="18" customHeight="1">
+      <c r="A161" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="B161" s="6" t="s">
+      <c r="B161" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C161" s="7">
+      <c r="C161" s="3">
         <v>9790129409</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A162" s="9" t="s">
+    <row r="162" spans="1:3" ht="18" customHeight="1">
+      <c r="A162" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="B162" s="6" t="s">
+      <c r="B162" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C162" s="7">
+      <c r="C162" s="3">
         <v>9842524121</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A163" s="9" t="s">
+    <row r="163" spans="1:3" ht="18" customHeight="1">
+      <c r="A163" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="B163" s="6" t="s">
+      <c r="B163" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C163" s="7">
+      <c r="C163" s="3">
         <v>9688660955</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A164" s="9" t="s">
+    <row r="164" spans="1:3" ht="18" customHeight="1">
+      <c r="A164" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="B164" s="6" t="s">
+      <c r="B164" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C164" s="7">
+      <c r="C164" s="3">
         <v>9786842062</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A165" s="9" t="s">
+    <row r="165" spans="1:3" ht="18" customHeight="1">
+      <c r="A165" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="B165" s="6" t="s">
+      <c r="B165" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C165" s="7">
+      <c r="C165" s="3">
         <v>9894316716</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A166" s="9" t="s">
+    <row r="166" spans="1:3" ht="18" customHeight="1">
+      <c r="A166" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="B166" s="6" t="s">
+      <c r="B166" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C166" s="7">
+      <c r="C166" s="3">
         <v>9500543724</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A167" s="9" t="s">
+    <row r="167" spans="1:3" ht="18" customHeight="1">
+      <c r="A167" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="B167" s="6" t="s">
+      <c r="B167" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C167" s="7">
+      <c r="C167" s="3">
         <v>9842713343</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A168" s="9" t="s">
+    <row r="168" spans="1:3" ht="18" customHeight="1">
+      <c r="A168" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="B168" s="6" t="s">
+      <c r="B168" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C168" s="8">
+      <c r="C168" s="4">
         <v>9965830074</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A169" s="9" t="s">
+    <row r="169" spans="1:3" ht="18" customHeight="1">
+      <c r="A169" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="B169" s="6" t="s">
+      <c r="B169" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C169" s="7">
+      <c r="C169" s="3">
         <v>9788003850</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A170" s="9" t="s">
+    <row r="170" spans="1:3" ht="18" customHeight="1">
+      <c r="A170" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="B170" s="6" t="s">
+      <c r="B170" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C170" s="7">
+      <c r="C170" s="3">
         <v>8122122291</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A171" s="9" t="s">
+    <row r="171" spans="1:3" ht="18" customHeight="1">
+      <c r="A171" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="B171" s="6" t="s">
+      <c r="B171" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C171" s="7">
+      <c r="C171" s="3">
         <v>9677616972</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A172" s="9" t="s">
+    <row r="172" spans="1:3" ht="18" customHeight="1">
+      <c r="A172" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="B172" s="6" t="s">
+      <c r="B172" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C172" s="7">
+      <c r="C172" s="3">
         <v>9788842255</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A173" s="9" t="s">
+    <row r="173" spans="1:3" ht="18" customHeight="1">
+      <c r="A173" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="B173" s="6" t="s">
+      <c r="B173" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C173" s="7">
+      <c r="C173" s="3">
         <v>9442174907</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A174" s="9" t="s">
+    <row r="174" spans="1:3" ht="18" customHeight="1">
+      <c r="A174" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="B174" s="6" t="s">
+      <c r="B174" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C174" s="7">
+      <c r="C174" s="3">
         <v>948865997</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A175" s="9" t="s">
+    <row r="175" spans="1:3" ht="18" customHeight="1">
+      <c r="A175" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="B175" s="6" t="s">
+      <c r="B175" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C175" s="7">
+      <c r="C175" s="3">
         <v>9865477752</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A176" s="9" t="s">
+    <row r="176" spans="1:3" ht="18" customHeight="1">
+      <c r="A176" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="B176" s="6" t="s">
+      <c r="B176" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C176" s="7">
+      <c r="C176" s="3">
         <v>8220134467</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A177" s="9" t="s">
+    <row r="177" spans="1:3" ht="18" customHeight="1">
+      <c r="A177" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="B177" s="6" t="s">
+      <c r="B177" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C177" s="7">
+      <c r="C177" s="3">
         <v>9659219447</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A178" s="9" t="s">
+    <row r="178" spans="1:3" ht="18" customHeight="1">
+      <c r="A178" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="B178" s="6" t="s">
+      <c r="B178" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C178" s="7">
+      <c r="C178" s="3">
         <v>9788150498</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A179" s="9" t="s">
+    <row r="179" spans="1:3" ht="18" customHeight="1">
+      <c r="A179" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="B179" s="6" t="s">
+      <c r="B179" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C179" s="7">
+      <c r="C179" s="3">
         <v>9442200806</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A180" s="9" t="s">
+    <row r="180" spans="1:3" ht="18" customHeight="1">
+      <c r="A180" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="B180" s="6" t="s">
+      <c r="B180" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C180" s="7">
+      <c r="C180" s="3">
         <v>9489485109</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A181" s="9" t="s">
+    <row r="181" spans="1:3" ht="18" customHeight="1">
+      <c r="A181" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="B181" s="6" t="s">
+      <c r="B181" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C181" s="7">
+      <c r="C181" s="3">
         <v>9942817736</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A182" s="9" t="s">
+    <row r="182" spans="1:3" ht="18" customHeight="1">
+      <c r="A182" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="B182" s="6" t="s">
+      <c r="B182" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C182" s="7">
+      <c r="C182" s="3">
         <v>9843205418</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A183" s="9" t="s">
+    <row r="183" spans="1:3" ht="18" customHeight="1">
+      <c r="A183" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="B183" s="6" t="s">
+      <c r="B183" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C183" s="8">
+      <c r="C183" s="4">
         <v>9842374824</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A184" s="9" t="s">
+    <row r="184" spans="1:3" ht="18" customHeight="1">
+      <c r="A184" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="B184" s="6" t="s">
+      <c r="B184" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C184" s="7">
+      <c r="C184" s="3">
         <v>9842087886</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A185" s="9" t="s">
+    <row r="185" spans="1:3" ht="18" customHeight="1">
+      <c r="A185" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="B185" s="6" t="s">
+      <c r="B185" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C185" s="7">
+      <c r="C185" s="3">
         <v>9629624838</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A186" s="9" t="s">
+    <row r="186" spans="1:3" ht="18" customHeight="1">
+      <c r="A186" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="B186" s="6" t="s">
+      <c r="B186" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C186" s="7">
+      <c r="C186" s="3">
         <v>9943070090</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A187" s="9" t="s">
+    <row r="187" spans="1:3" ht="18" customHeight="1">
+      <c r="A187" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="B187" s="6" t="s">
+      <c r="B187" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C187" s="7">
+      <c r="C187" s="3">
         <v>9095150758</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A188" s="9" t="s">
+    <row r="188" spans="1:3" ht="18" customHeight="1">
+      <c r="A188" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="B188" s="6" t="s">
+      <c r="B188" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C188" s="7">
+      <c r="C188" s="3">
         <v>9942072521</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A189" s="9" t="s">
+    <row r="189" spans="1:3" ht="18" customHeight="1">
+      <c r="A189" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="B189" s="6" t="s">
+      <c r="B189" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C189" s="7">
+      <c r="C189" s="3">
         <v>9585482121</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A190" s="9" t="s">
+    <row r="190" spans="1:3" ht="18" customHeight="1">
+      <c r="A190" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="B190" s="6" t="s">
+      <c r="B190" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C190" s="7">
+      <c r="C190" s="3">
         <v>8883745609</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A191" s="9" t="s">
+    <row r="191" spans="1:3" ht="18" customHeight="1">
+      <c r="A191" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="B191" s="6" t="s">
+      <c r="B191" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="C191" s="7">
+      <c r="C191" s="3">
         <v>9500806628</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A192" s="9" t="s">
+    <row r="192" spans="1:3" ht="18" customHeight="1">
+      <c r="A192" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="B192" s="6" t="s">
+      <c r="B192" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C192" s="8">
+      <c r="C192" s="4">
         <v>8122344526</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A193" s="9" t="s">
+    <row r="193" spans="1:3" ht="18" customHeight="1">
+      <c r="A193" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="B193" s="6" t="s">
+      <c r="B193" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C193" s="7">
+      <c r="C193" s="3">
         <v>9942097453</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A194" s="9" t="s">
+    <row r="194" spans="1:3" ht="18" customHeight="1">
+      <c r="A194" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="B194" s="6" t="s">
+      <c r="B194" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C194" s="8">
+      <c r="C194" s="4">
         <v>9442372527</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A195" s="9" t="s">
+    <row r="195" spans="1:3" ht="18" customHeight="1">
+      <c r="A195" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="B195" s="6" t="s">
+      <c r="B195" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C195" s="8">
+      <c r="C195" s="4">
         <v>9894101206</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A196" s="9" t="s">
+    <row r="196" spans="1:3" ht="18" customHeight="1">
+      <c r="A196" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="B196" s="6" t="s">
+      <c r="B196" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C196" s="7">
+      <c r="C196" s="3">
         <v>9843505814</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A197" s="9" t="s">
+    <row r="197" spans="1:3" ht="18" customHeight="1">
+      <c r="A197" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="B197" s="6" t="s">
+      <c r="B197" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C197" s="7">
+      <c r="C197" s="3">
         <v>9629087540</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A198" s="9" t="s">
+    <row r="198" spans="1:3" ht="18" customHeight="1">
+      <c r="A198" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="B198" s="6" t="s">
+      <c r="B198" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C198" s="7">
+      <c r="C198" s="3">
         <v>9842591871</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A199" s="9" t="s">
+    <row r="199" spans="1:3" ht="18" customHeight="1">
+      <c r="A199" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="B199" s="6" t="s">
+      <c r="B199" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C199" s="7">
+      <c r="C199" s="3">
         <v>9942792591</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A200" s="9" t="s">
+    <row r="200" spans="1:3" ht="18" customHeight="1">
+      <c r="A200" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="B200" s="6" t="s">
+      <c r="B200" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C200" s="7">
+      <c r="C200" s="3">
         <v>9715614944</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A201" s="9" t="s">
+    <row r="201" spans="1:3" ht="18" customHeight="1">
+      <c r="A201" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="B201" s="6" t="s">
+      <c r="B201" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C201" s="7">
+      <c r="C201" s="3">
         <v>9842530374</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A202" s="9" t="s">
+    <row r="202" spans="1:3" ht="18" customHeight="1">
+      <c r="A202" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="B202" s="6" t="s">
+      <c r="B202" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C202" s="7">
+      <c r="C202" s="3">
         <v>7708391185</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A203" s="9" t="s">
+    <row r="203" spans="1:3" ht="18" customHeight="1">
+      <c r="A203" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="B203" s="6" t="s">
+      <c r="B203" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C203" s="8">
+      <c r="C203" s="4">
         <v>9942377938</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A204" s="9" t="s">
+    <row r="204" spans="1:3" ht="18" customHeight="1">
+      <c r="A204" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="B204" s="6" t="s">
+      <c r="B204" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C204" s="8">
+      <c r="C204" s="4">
         <v>8144735031</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A205" s="9" t="s">
+    <row r="205" spans="1:3" ht="18" customHeight="1">
+      <c r="A205" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="B205" s="6" t="s">
+      <c r="B205" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C205" s="7">
+      <c r="C205" s="3">
         <v>9788699579</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A206" s="9" t="s">
+    <row r="206" spans="1:3" ht="18" customHeight="1">
+      <c r="A206" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="B206" s="6" t="s">
+      <c r="B206" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C206" s="7">
+      <c r="C206" s="3">
         <v>9487923874</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A207" s="9" t="s">
+    <row r="207" spans="1:3" ht="18" customHeight="1">
+      <c r="A207" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="B207" s="6" t="s">
+      <c r="B207" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C207" s="7">
+      <c r="C207" s="3">
         <v>8122936476</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A208" s="9" t="s">
+    <row r="208" spans="1:3" ht="18" customHeight="1">
+      <c r="A208" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="B208" s="6" t="s">
+      <c r="B208" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="C208" s="7">
+      <c r="C208" s="3">
         <v>9629397283</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A209" s="9" t="s">
+    <row r="209" spans="1:3" ht="18" customHeight="1">
+      <c r="A209" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="B209" s="6" t="s">
+      <c r="B209" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="C209" s="7">
+      <c r="C209" s="3">
         <v>9159859332</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A210" s="9" t="s">
+    <row r="210" spans="1:3" ht="18" customHeight="1">
+      <c r="A210" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="B210" s="6" t="s">
+      <c r="B210" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C210" s="7">
+      <c r="C210" s="3">
         <v>7373030290</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A211" s="9" t="s">
+    <row r="211" spans="1:3" ht="18" customHeight="1">
+      <c r="A211" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="B211" s="6" t="s">
+      <c r="B211" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="C211" s="7">
+      <c r="C211" s="3">
         <v>9994463033</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A212" s="9" t="s">
+    <row r="212" spans="1:3" ht="18" customHeight="1">
+      <c r="A212" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="B212" s="6" t="s">
+      <c r="B212" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="C212" s="7">
+      <c r="C212" s="3">
         <v>9789604100</v>
       </c>
     </row>
-    <row r="213" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A213" s="9" t="s">
+    <row r="213" spans="1:3" ht="18" customHeight="1">
+      <c r="A213" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="B213" s="6" t="s">
+      <c r="B213" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C213" s="7">
+      <c r="C213" s="3">
         <v>9894271456</v>
       </c>
     </row>
-    <row r="214" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A214" s="9" t="s">
+    <row r="214" spans="1:3" ht="18" customHeight="1">
+      <c r="A214" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="B214" s="6" t="s">
+      <c r="B214" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="C214" s="7">
+      <c r="C214" s="3">
         <v>9715309642</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A215" s="9" t="s">
+    <row r="215" spans="1:3" ht="18" customHeight="1">
+      <c r="A215" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="B215" s="6" t="s">
+      <c r="B215" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="C215" s="8">
+      <c r="C215" s="4">
         <v>8344366898</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A216" s="9" t="s">
+    <row r="216" spans="1:3" ht="18" customHeight="1">
+      <c r="A216" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="B216" s="6" t="s">
+      <c r="B216" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="C216" s="8">
+      <c r="C216" s="4">
         <v>9442200911</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A217" s="9" t="s">
+    <row r="217" spans="1:3" ht="18" customHeight="1">
+      <c r="A217" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="B217" s="6" t="s">
+      <c r="B217" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C217" s="8">
+      <c r="C217" s="4">
         <v>8220076437</v>
       </c>
     </row>
-    <row r="218" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A218" s="9" t="s">
+    <row r="218" spans="1:3" ht="18" customHeight="1">
+      <c r="A218" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="B218" s="6" t="s">
+      <c r="B218" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C218" s="7">
+      <c r="C218" s="3">
         <v>9965317675</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A219" s="9" t="s">
+    <row r="219" spans="1:3" ht="18" customHeight="1">
+      <c r="A219" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="B219" s="6" t="s">
+      <c r="B219" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C219" s="7">
+      <c r="C219" s="3">
         <v>9994319701</v>
       </c>
     </row>
-    <row r="220" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A220" s="9" t="s">
+    <row r="220" spans="1:3" ht="18" customHeight="1">
+      <c r="A220" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="B220" s="6" t="s">
+      <c r="B220" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C220" s="7">
+      <c r="C220" s="3">
         <v>9443524004</v>
       </c>
     </row>
-    <row r="221" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A221" s="9" t="s">
+    <row r="221" spans="1:3" ht="18" customHeight="1">
+      <c r="A221" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="B221" s="6" t="s">
+      <c r="B221" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="C221" s="7">
+      <c r="C221" s="3">
         <v>9543566006</v>
       </c>
     </row>
-    <row r="222" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A222" s="9" t="s">
+    <row r="222" spans="1:3" ht="18" customHeight="1">
+      <c r="A222" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="B222" s="6" t="s">
+      <c r="B222" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C222" s="7">
+      <c r="C222" s="3">
         <v>7305530770</v>
       </c>
     </row>
-    <row r="223" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A223" s="9" t="s">
+    <row r="223" spans="1:3" ht="18" customHeight="1">
+      <c r="A223" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="B223" s="6" t="s">
+      <c r="B223" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C223" s="8">
+      <c r="C223" s="4">
         <v>9942529009</v>
       </c>
     </row>
-    <row r="224" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A224" s="9" t="s">
+    <row r="224" spans="1:3" ht="18" customHeight="1">
+      <c r="A224" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="B224" s="6" t="s">
+      <c r="B224" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="C224" s="7">
+      <c r="C224" s="3">
         <v>9942199138</v>
       </c>
     </row>
-    <row r="225" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A225" s="9" t="s">
+    <row r="225" spans="1:3" ht="18" customHeight="1">
+      <c r="A225" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="B225" s="6" t="s">
+      <c r="B225" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="C225" s="7">
+      <c r="C225" s="3">
         <v>9842361178</v>
       </c>
     </row>
-    <row r="226" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A226" s="9" t="s">
+    <row r="226" spans="1:3" ht="18" customHeight="1">
+      <c r="A226" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="B226" s="6" t="s">
+      <c r="B226" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="C226" s="7">
+      <c r="C226" s="3">
         <v>9788412630</v>
       </c>
     </row>
-    <row r="227" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A227" s="9" t="s">
+    <row r="227" spans="1:3" ht="18" customHeight="1">
+      <c r="A227" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="B227" s="6" t="s">
+      <c r="B227" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C227" s="7">
+      <c r="C227" s="3">
         <v>9865042261</v>
       </c>
     </row>
-    <row r="228" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A228" s="9" t="s">
+    <row r="228" spans="1:3" ht="18" customHeight="1">
+      <c r="A228" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="B228" s="6" t="s">
+      <c r="B228" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="C228" s="7">
+      <c r="C228" s="3">
         <v>9842916702</v>
       </c>
     </row>
-    <row r="229" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A229" s="9" t="s">
+    <row r="229" spans="1:3" ht="18" customHeight="1">
+      <c r="A229" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="B229" s="6" t="s">
+      <c r="B229" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="C229" s="7">
+      <c r="C229" s="3">
         <v>9842742704</v>
       </c>
     </row>
-    <row r="230" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A230" s="9" t="s">
+    <row r="230" spans="1:3" ht="18" customHeight="1">
+      <c r="A230" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="B230" s="6" t="s">
+      <c r="B230" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="C230" s="7">
+      <c r="C230" s="3">
         <v>9442485007</v>
       </c>
     </row>
-    <row r="231" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A231" s="9" t="s">
+    <row r="231" spans="1:3" ht="18" customHeight="1">
+      <c r="A231" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="B231" s="6" t="s">
+      <c r="B231" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="C231" s="7">
+      <c r="C231" s="3">
         <v>9677697592</v>
       </c>
     </row>
-    <row r="232" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A232" s="9" t="s">
+    <row r="232" spans="1:3" ht="18" customHeight="1">
+      <c r="A232" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="B232" s="6" t="s">
+      <c r="B232" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="C232" s="7">
+      <c r="C232" s="3">
         <v>9543067608</v>
       </c>
     </row>
-    <row r="233" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A233" s="9" t="s">
+    <row r="233" spans="1:3" ht="18" customHeight="1">
+      <c r="A233" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="B233" s="6" t="s">
+      <c r="B233" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="C233" s="7">
+      <c r="C233" s="3">
         <v>9443101550</v>
       </c>
     </row>
-    <row r="234" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A234" s="9" t="s">
+    <row r="234" spans="1:3" ht="18" customHeight="1">
+      <c r="A234" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="B234" s="6" t="s">
+      <c r="B234" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C234" s="8">
+      <c r="C234" s="4">
         <v>8760243687</v>
       </c>
     </row>
-    <row r="235" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A235" s="9" t="s">
+    <row r="235" spans="1:3" ht="18" customHeight="1">
+      <c r="A235" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="B235" s="6" t="s">
+      <c r="B235" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C235" s="8">
+      <c r="C235" s="4">
         <v>9942926919</v>
       </c>
     </row>
-    <row r="236" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A236" s="9" t="s">
+    <row r="236" spans="1:3" ht="18" customHeight="1">
+      <c r="A236" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="B236" s="6" t="s">
+      <c r="B236" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C236" s="7">
+      <c r="C236" s="3">
         <v>9865655219</v>
       </c>
     </row>
-    <row r="237" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A237" s="9" t="s">
+    <row r="237" spans="1:3" ht="18" customHeight="1">
+      <c r="A237" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="B237" s="6" t="s">
+      <c r="B237" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="C237" s="7">
+      <c r="C237" s="3">
         <v>9965708685</v>
       </c>
     </row>
-    <row r="238" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A238" s="9" t="s">
+    <row r="238" spans="1:3" ht="18" customHeight="1">
+      <c r="A238" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="B238" s="6" t="s">
+      <c r="B238" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="C238" s="7">
+      <c r="C238" s="3">
         <v>9994048509</v>
       </c>
     </row>
-    <row r="239" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A239" s="9" t="s">
+    <row r="239" spans="1:3" ht="18" customHeight="1">
+      <c r="A239" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="B239" s="6" t="s">
+      <c r="B239" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="C239" s="8">
+      <c r="C239" s="4">
         <v>9698666970</v>
       </c>
     </row>
-    <row r="240" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A240" s="9" t="s">
+    <row r="240" spans="1:3" ht="18" customHeight="1">
+      <c r="A240" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="B240" s="6" t="s">
+      <c r="B240" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="C240" s="7">
+      <c r="C240" s="3">
         <v>9965617404</v>
       </c>
     </row>
-    <row r="241" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A241" s="9" t="s">
+    <row r="241" spans="1:3" ht="18" customHeight="1">
+      <c r="A241" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="B241" s="6" t="s">
+      <c r="B241" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="C241" s="7">
+      <c r="C241" s="3">
         <v>9976631208</v>
       </c>
     </row>
-    <row r="242" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A242" s="9" t="s">
+    <row r="242" spans="1:3" ht="18" customHeight="1">
+      <c r="A242" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="B242" s="6" t="s">
+      <c r="B242" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="C242" s="7">
+      <c r="C242" s="3">
         <v>9976291999</v>
       </c>
     </row>
-    <row r="243" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A243" s="9" t="s">
+    <row r="243" spans="1:3" ht="18" customHeight="1">
+      <c r="A243" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="B243" s="6" t="s">
+      <c r="B243" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="C243" s="7">
+      <c r="C243" s="3">
         <v>9698627755</v>
       </c>
     </row>
-    <row r="244" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A244" s="9" t="s">
+    <row r="244" spans="1:3" ht="18" customHeight="1">
+      <c r="A244" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="B244" s="6" t="s">
+      <c r="B244" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="C244" s="8">
+      <c r="C244" s="4">
         <v>8883226088</v>
       </c>
     </row>
-    <row r="245" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A245" s="9" t="s">
+    <row r="245" spans="1:3" ht="18" customHeight="1">
+      <c r="A245" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="B245" s="6" t="s">
+      <c r="B245" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="C245" s="8">
+      <c r="C245" s="4">
         <v>9585905881</v>
       </c>
     </row>
-    <row r="246" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A246" s="9" t="s">
+    <row r="246" spans="1:3" ht="18" customHeight="1">
+      <c r="A246" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="B246" s="6" t="s">
+      <c r="B246" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="C246" s="8">
+      <c r="C246" s="4">
         <v>9865425758</v>
       </c>
     </row>
-    <row r="247" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A247" s="9" t="s">
+    <row r="247" spans="1:3" ht="18" customHeight="1">
+      <c r="A247" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="B247" s="6" t="s">
+      <c r="B247" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="C247" s="8">
+      <c r="C247" s="4">
         <v>9865130102</v>
       </c>
     </row>
-    <row r="248" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A248" s="9" t="s">
+    <row r="248" spans="1:3" ht="18" customHeight="1">
+      <c r="A248" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="B248" s="6" t="s">
+      <c r="B248" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="C248" s="8">
+      <c r="C248" s="4">
         <v>9842753798</v>
       </c>
     </row>
-    <row r="249" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A249" s="9" t="s">
+    <row r="249" spans="1:3" ht="18" customHeight="1">
+      <c r="A249" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="B249" s="6" t="s">
+      <c r="B249" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="C249" s="8">
+      <c r="C249" s="4">
         <v>8526936344</v>
       </c>
     </row>
-    <row r="250" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A250" s="9" t="s">
+    <row r="250" spans="1:3" ht="18" customHeight="1">
+      <c r="A250" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="B250" s="6" t="s">
+      <c r="B250" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="C250" s="7">
+      <c r="C250" s="3">
         <v>9842576930</v>
       </c>
     </row>
-    <row r="251" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A251" s="9" t="s">
+    <row r="251" spans="1:3" ht="18" customHeight="1">
+      <c r="A251" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="B251" s="6" t="s">
+      <c r="B251" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="C251" s="8">
+      <c r="C251" s="4">
         <v>8883117456</v>
       </c>
     </row>
-    <row r="252" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A252" s="9" t="s">
+    <row r="252" spans="1:3" ht="18" customHeight="1">
+      <c r="A252" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="B252" s="6" t="s">
+      <c r="B252" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="C252" s="8">
+      <c r="C252" s="4">
         <v>9566886174</v>
       </c>
     </row>
-    <row r="253" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A253" s="9" t="s">
+    <row r="253" spans="1:3" ht="18" customHeight="1">
+      <c r="A253" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="B253" s="6" t="s">
+      <c r="B253" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="C253" s="8">
+      <c r="C253" s="4">
         <v>8883358163</v>
       </c>
     </row>
-    <row r="254" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A254" s="9" t="s">
+    <row r="254" spans="1:3" ht="18" customHeight="1">
+      <c r="A254" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="B254" s="6" t="s">
+      <c r="B254" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="C254" s="8">
+      <c r="C254" s="4">
         <v>9095520351</v>
       </c>
     </row>
-    <row r="255" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A255" s="9" t="s">
+    <row r="255" spans="1:3" ht="18" customHeight="1">
+      <c r="A255" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="B255" s="6" t="s">
+      <c r="B255" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="C255" s="7">
+      <c r="C255" s="3">
         <v>9442200806</v>
       </c>
     </row>
-    <row r="256" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A256" s="9" t="s">
+    <row r="256" spans="1:3" ht="18" customHeight="1">
+      <c r="A256" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="B256" s="6" t="s">
+      <c r="B256" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="C256" s="7">
+      <c r="C256" s="3">
         <v>9942069960</v>
       </c>
     </row>
-    <row r="257" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A257" s="9" t="s">
+    <row r="257" spans="1:3" ht="18" customHeight="1">
+      <c r="A257" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="B257" s="6" t="s">
+      <c r="B257" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="C257" s="8">
+      <c r="C257" s="4">
         <v>9750167878</v>
       </c>
     </row>
-    <row r="258" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A258" s="9" t="s">
+    <row r="258" spans="1:3" ht="18" customHeight="1">
+      <c r="A258" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="B258" s="6" t="s">
+      <c r="B258" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="C258" s="8">
+      <c r="C258" s="4">
         <v>8940245705</v>
       </c>
     </row>
-    <row r="259" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A259" s="9" t="s">
+    <row r="259" spans="1:3" ht="18" customHeight="1">
+      <c r="A259" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="B259" s="6" t="s">
+      <c r="B259" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="C259" s="7">
+      <c r="C259" s="3">
         <v>9486784627</v>
       </c>
     </row>
-    <row r="260" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A260" s="9" t="s">
+    <row r="260" spans="1:3" ht="18" customHeight="1">
+      <c r="A260" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="B260" s="6" t="s">
+      <c r="B260" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="C260" s="7">
+      <c r="C260" s="3">
         <v>9543639445</v>
       </c>
     </row>
-    <row r="261" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A261" s="9" t="s">
+    <row r="261" spans="1:3" ht="18" customHeight="1">
+      <c r="A261" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="B261" s="6" t="s">
+      <c r="B261" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="C261" s="7">
+      <c r="C261" s="3">
         <v>9865385644</v>
       </c>
     </row>
-    <row r="262" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A262" s="9" t="s">
+    <row r="262" spans="1:3" ht="18" customHeight="1">
+      <c r="A262" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="B262" s="6" t="s">
+      <c r="B262" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="C262" s="8">
+      <c r="C262" s="4">
         <v>9489556226</v>
       </c>
     </row>
-    <row r="263" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A263" s="9" t="s">
+    <row r="263" spans="1:3" ht="18" customHeight="1">
+      <c r="A263" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="B263" s="6" t="s">
+      <c r="B263" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="C263" s="8">
+      <c r="C263" s="4">
         <v>7667284414</v>
       </c>
     </row>
-    <row r="264" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A264" s="9" t="s">
+    <row r="264" spans="1:3" ht="18" customHeight="1">
+      <c r="A264" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="B264" s="6" t="s">
+      <c r="B264" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C264" s="7">
+      <c r="C264" s="3">
         <v>9095654535</v>
       </c>
     </row>
-    <row r="265" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A265" s="9" t="s">
+    <row r="265" spans="1:3" ht="18" customHeight="1">
+      <c r="A265" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="B265" s="6" t="s">
+      <c r="B265" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="C265" s="7">
+      <c r="C265" s="3">
         <v>9688166575</v>
       </c>
     </row>
-    <row r="266" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A266" s="9" t="s">
+    <row r="266" spans="1:3" ht="18" customHeight="1">
+      <c r="A266" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="B266" s="6" t="s">
+      <c r="B266" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="C266" s="8">
+      <c r="C266" s="4">
         <v>9942584835</v>
       </c>
     </row>
-    <row r="267" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A267" s="9" t="s">
+    <row r="267" spans="1:3" ht="18" customHeight="1">
+      <c r="A267" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="B267" s="6" t="s">
+      <c r="B267" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="C267" s="7">
+      <c r="C267" s="3">
         <v>9942363488</v>
       </c>
     </row>
-    <row r="268" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A268" s="9" t="s">
+    <row r="268" spans="1:3" ht="18" customHeight="1">
+      <c r="A268" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="B268" s="6" t="s">
+      <c r="B268" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="C268" s="8">
+      <c r="C268" s="4">
         <v>9976872615</v>
       </c>
     </row>
-    <row r="269" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A269" s="9" t="s">
+    <row r="269" spans="1:3" ht="18" customHeight="1">
+      <c r="A269" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="B269" s="6" t="s">
+      <c r="B269" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="C269" s="8">
+      <c r="C269" s="4">
         <v>9442334120</v>
       </c>
     </row>
-    <row r="270" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A270" s="9" t="s">
+    <row r="270" spans="1:3" ht="18" customHeight="1">
+      <c r="A270" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="B270" s="6" t="s">
+      <c r="B270" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="C270" s="8">
+      <c r="C270" s="4">
         <v>9688184822</v>
       </c>
     </row>
-    <row r="271" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A271" s="9" t="s">
+    <row r="271" spans="1:3" ht="18" customHeight="1">
+      <c r="A271" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="B271" s="6" t="s">
+      <c r="B271" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="C271" s="8">
+      <c r="C271" s="4">
         <v>9865084342</v>
       </c>
     </row>
-    <row r="272" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A272" s="9" t="s">
+    <row r="272" spans="1:3" ht="18" customHeight="1">
+      <c r="A272" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="B272" s="6" t="s">
+      <c r="B272" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="C272" s="8">
+      <c r="C272" s="4">
         <v>9786717788</v>
       </c>
     </row>
-    <row r="273" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A273" s="9" t="s">
+    <row r="273" spans="1:3" ht="18" customHeight="1">
+      <c r="A273" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="B273" s="6" t="s">
+      <c r="B273" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="C273" s="8">
+      <c r="C273" s="4">
         <v>9688412406</v>
       </c>
     </row>
-    <row r="274" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A274" s="9" t="s">
+    <row r="274" spans="1:3" ht="18" customHeight="1">
+      <c r="A274" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="B274" s="6" t="s">
+      <c r="B274" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="C274" s="8">
+      <c r="C274" s="4">
         <v>9597589960</v>
       </c>
     </row>
-    <row r="275" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A275" s="9" t="s">
+    <row r="275" spans="1:3" ht="18" customHeight="1">
+      <c r="A275" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="B275" s="6" t="s">
+      <c r="B275" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C275" s="7">
+      <c r="C275" s="3">
         <v>9942808027</v>
       </c>
     </row>
-    <row r="276" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A276" s="9" t="s">
+    <row r="276" spans="1:3" ht="18" customHeight="1">
+      <c r="A276" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="B276" s="6" t="s">
+      <c r="B276" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="C276" s="8">
+      <c r="C276" s="4">
         <v>9092987325</v>
       </c>
     </row>
-    <row r="277" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A277" s="9" t="s">
+    <row r="277" spans="1:3" ht="18" customHeight="1">
+      <c r="A277" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="B277" s="6" t="s">
+      <c r="B277" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="C277" s="7">
+      <c r="C277" s="3">
         <v>8012451204</v>
       </c>
     </row>
-    <row r="278" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A278" s="9" t="s">
+    <row r="278" spans="1:3" ht="18" customHeight="1">
+      <c r="A278" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="B278" s="6" t="s">
+      <c r="B278" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="C278" s="7">
+      <c r="C278" s="3">
         <v>9788005075</v>
       </c>
     </row>
-    <row r="279" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A279" s="9" t="s">
+    <row r="279" spans="1:3" ht="18" customHeight="1">
+      <c r="A279" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="B279" s="6" t="s">
+      <c r="B279" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="C279" s="8">
+      <c r="C279" s="4">
         <v>9715480775</v>
       </c>
     </row>
-    <row r="280" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A280" s="9" t="s">
+    <row r="280" spans="1:3" ht="18" customHeight="1">
+      <c r="A280" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="B280" s="6" t="s">
+      <c r="B280" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="C280" s="8">
+      <c r="C280" s="4">
         <v>9786951255</v>
       </c>
     </row>
-    <row r="281" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A281" s="9" t="s">
+    <row r="281" spans="1:3" ht="18" customHeight="1">
+      <c r="A281" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="B281" s="6" t="s">
+      <c r="B281" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="C281" s="7">
+      <c r="C281" s="3">
         <v>9443119087</v>
       </c>
     </row>
-    <row r="282" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A282" s="9" t="s">
+    <row r="282" spans="1:3" ht="18" customHeight="1">
+      <c r="A282" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="B282" s="6" t="s">
+      <c r="B282" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="C282" s="8">
+      <c r="C282" s="4">
         <v>9786951255</v>
       </c>
     </row>
-    <row r="283" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A283" s="9" t="s">
+    <row r="283" spans="1:3" ht="18" customHeight="1">
+      <c r="A283" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="B283" s="6" t="s">
+      <c r="B283" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="C283" s="8">
+      <c r="C283" s="4">
         <v>9965615160</v>
       </c>
     </row>
-    <row r="284" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A284" s="9" t="s">
+    <row r="284" spans="1:3" ht="18" customHeight="1">
+      <c r="A284" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="B284" s="6" t="s">
+      <c r="B284" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="C284" s="8">
+      <c r="C284" s="4">
         <v>8148678059</v>
       </c>
     </row>
-    <row r="285" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A285" s="9" t="s">
+    <row r="285" spans="1:3" ht="18" customHeight="1">
+      <c r="A285" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="B285" s="6" t="s">
+      <c r="B285" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="C285" s="8">
+      <c r="C285" s="4">
         <v>9524439588</v>
       </c>
     </row>
-    <row r="286" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A286" s="9" t="s">
+    <row r="286" spans="1:3" ht="18" customHeight="1">
+      <c r="A286" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="B286" s="6" t="s">
+      <c r="B286" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="C286" s="8">
+      <c r="C286" s="4">
         <v>9894779691</v>
       </c>
     </row>
-    <row r="287" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A287" s="9" t="s">
+    <row r="287" spans="1:3" ht="18" customHeight="1">
+      <c r="A287" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="B287" s="6" t="s">
+      <c r="B287" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="C287" s="8">
+      <c r="C287" s="4">
         <v>9965261905</v>
       </c>
     </row>
-    <row r="288" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A288" s="9" t="s">
+    <row r="288" spans="1:3" ht="18" customHeight="1">
+      <c r="A288" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="B288" s="6" t="s">
+      <c r="B288" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="C288" s="8">
+      <c r="C288" s="4">
         <v>9965751332</v>
       </c>
     </row>
-    <row r="289" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A289" s="9" t="s">
+    <row r="289" spans="1:3" ht="18" customHeight="1">
+      <c r="A289" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="B289" s="6" t="s">
+      <c r="B289" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="C289" s="7">
+      <c r="C289" s="3">
         <v>9443681097</v>
       </c>
     </row>
-    <row r="290" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A290" s="9" t="s">
+    <row r="290" spans="1:3" ht="18" customHeight="1">
+      <c r="A290" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="B290" s="6" t="s">
+      <c r="B290" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="C290" s="8">
+      <c r="C290" s="4">
         <v>9791861677</v>
       </c>
     </row>
-    <row r="291" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A291" s="9" t="s">
+    <row r="291" spans="1:3" ht="18" customHeight="1">
+      <c r="A291" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="B291" s="6" t="s">
+      <c r="B291" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="C291" s="7">
+      <c r="C291" s="3">
         <v>9976561795</v>
       </c>
     </row>
-    <row r="292" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A292" s="9" t="s">
+    <row r="292" spans="1:3" ht="18" customHeight="1">
+      <c r="A292" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="B292" s="6" t="s">
+      <c r="B292" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="C292" s="7">
+      <c r="C292" s="3">
         <v>9095802618</v>
       </c>
     </row>
-    <row r="293" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A293" s="9" t="s">
+    <row r="293" spans="1:3" ht="18" customHeight="1">
+      <c r="A293" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="B293" s="6" t="s">
+      <c r="B293" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="C293" s="7">
+      <c r="C293" s="3">
         <v>9842542718</v>
       </c>
     </row>
-    <row r="294" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A294" s="9" t="s">
+    <row r="294" spans="1:3" ht="18" customHeight="1">
+      <c r="A294" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="B294" s="6" t="s">
+      <c r="B294" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="C294" s="8">
+      <c r="C294" s="4">
         <v>9789320929</v>
       </c>
     </row>
-    <row r="295" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A295" s="9" t="s">
+    <row r="295" spans="1:3" ht="18" customHeight="1">
+      <c r="A295" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="B295" s="6" t="s">
+      <c r="B295" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="C295" s="7">
+      <c r="C295" s="3">
         <v>9865317494</v>
       </c>
     </row>
-    <row r="296" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A296" s="9" t="s">
+    <row r="296" spans="1:3" ht="18" customHeight="1">
+      <c r="A296" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="B296" s="6" t="s">
+      <c r="B296" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="C296" s="7">
+      <c r="C296" s="3">
         <v>9524780069</v>
       </c>
     </row>
-    <row r="297" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A297" s="9" t="s">
+    <row r="297" spans="1:3" ht="18" customHeight="1">
+      <c r="A297" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="B297" s="6" t="s">
+      <c r="B297" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="C297" s="7">
+      <c r="C297" s="3">
         <v>9488715566</v>
       </c>
     </row>
-    <row r="298" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A298" s="9" t="s">
+    <row r="298" spans="1:3" ht="18" customHeight="1">
+      <c r="A298" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="B298" s="6" t="s">
+      <c r="B298" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="C298" s="8">
+      <c r="C298" s="4">
         <v>9842854656</v>
       </c>
     </row>
-    <row r="299" spans="1:3" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A299" s="10" t="s">
+    <row r="299" spans="1:3" ht="18" customHeight="1">
+      <c r="A299" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="B299" s="11" t="s">
+      <c r="B299" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="C299" s="12">
+      <c r="C299" s="4">
         <v>9715687344</v>
       </c>
     </row>
-    <row r="300" spans="1:3" ht="20.100000000000001" customHeight="1"/>
-    <row r="301" spans="1:3" ht="20.100000000000001" customHeight="1"/>
-    <row r="302" spans="1:3" ht="20.100000000000001" customHeight="1"/>
-    <row r="303" spans="1:3" ht="20.100000000000001" customHeight="1"/>
-    <row r="304" spans="1:3" ht="20.100000000000001" customHeight="1"/>
-    <row r="305" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="306" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="307" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="308" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="309" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="310" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="311" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="312" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="313" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="314" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="315" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="316" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="317" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="318" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="319" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="320" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="321" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="322" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="323" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="324" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="325" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="326" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="327" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="328" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="329" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="330" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="331" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="332" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="333" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="334" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="335" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="336" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="337" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="338" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="339" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="340" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="341" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="342" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="343" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="344" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="345" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="346" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="347" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="348" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="349" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="350" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="351" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="352" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="353" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="354" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="355" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="356" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="357" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="358" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="359" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="360" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="361" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="362" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="363" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="364" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="365" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="366" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="367" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="368" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="369" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="370" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="371" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="372" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="373" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="374" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="375" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="376" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="377" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="378" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="379" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="380" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="381" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="382" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="383" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="384" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="385" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="386" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="387" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="388" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="389" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="390" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="391" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="392" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="393" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="394" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="395" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="396" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="397" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="398" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="399" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="400" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="401" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="402" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="403" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="404" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="405" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="406" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="407" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="408" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="409" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="410" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="411" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="412" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="413" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="414" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="415" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="416" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="417" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="418" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="419" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="420" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="421" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="422" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="423" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="424" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="425" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="426" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="427" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="428" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="429" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="430" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="431" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="432" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="433" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="434" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="435" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="436" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="437" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="438" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="439" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="440" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="441" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="442" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="443" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="444" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="445" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="446" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="447" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="448" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="449" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="450" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="451" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="452" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="453" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="454" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="455" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="456" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="457" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="458" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="459" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="460" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="461" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="462" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="463" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="464" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="465" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="466" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="467" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="468" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="469" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="470" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="471" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="472" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="473" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="474" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="475" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="476" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="477" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="478" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="479" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="480" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="481" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="482" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="483" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="484" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="485" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="486" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="487" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="488" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="489" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="490" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="491" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="492" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="493" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="494" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="495" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="496" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="497" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="498" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="499" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="500" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="501" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="502" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="503" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="504" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="505" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="506" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="507" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="508" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="509" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="510" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="511" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="512" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="513" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="514" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="515" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="516" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="517" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="518" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="519" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="520" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="521" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="522" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="523" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="524" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="525" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="526" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="527" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="528" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="529" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="530" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="531" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="532" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="533" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="534" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="535" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="536" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="537" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="538" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="539" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="540" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="541" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="542" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="543" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="544" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="545" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="546" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="547" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="548" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="549" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="550" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="551" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="552" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="553" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="554" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="555" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="556" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="557" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="558" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="559" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="560" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="561" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="562" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="563" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="564" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="565" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="566" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="567" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="568" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="569" s="4" customFormat="1" ht="20.100000000000001" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="180" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>